--- a/teaching/traditional_assets/database/data/turkey/turkey_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_insurance_prop_cas.xlsx
@@ -591,46 +591,49 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.1705</v>
+        <v>0.172</v>
       </c>
       <c r="E2">
-        <v>0.4425</v>
+        <v>0.477</v>
+      </c>
+      <c r="F2">
+        <v>0.14</v>
       </c>
       <c r="G2">
-        <v>0.0573053679345894</v>
+        <v>0.1204958972529433</v>
       </c>
       <c r="H2">
-        <v>0.0573053679345894</v>
+        <v>0.1204958972529433</v>
       </c>
       <c r="I2">
-        <v>0.1363891290243261</v>
+        <v>0.03343780869022059</v>
       </c>
       <c r="J2">
-        <v>0.1051073210437501</v>
+        <v>0.02710883718519644</v>
       </c>
       <c r="K2">
-        <v>130.9</v>
+        <v>126</v>
       </c>
       <c r="L2">
-        <v>0.09306789904017064</v>
+        <v>0.1123795932929005</v>
       </c>
       <c r="M2">
-        <v>54.59999999999999</v>
+        <v>44.9</v>
       </c>
       <c r="N2">
-        <v>0.0799531410162542</v>
+        <v>0.05036455412226584</v>
       </c>
       <c r="O2">
-        <v>0.4171122994652406</v>
+        <v>0.3563492063492064</v>
       </c>
       <c r="P2">
-        <v>54.59999999999999</v>
+        <v>44.9</v>
       </c>
       <c r="Q2">
-        <v>0.0799531410162542</v>
+        <v>0.05036455412226584</v>
       </c>
       <c r="R2">
-        <v>0.4171122994652406</v>
+        <v>0.3563492063492064</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -639,73 +642,70 @@
         <v>0</v>
       </c>
       <c r="U2">
-        <v>1094.1</v>
+        <v>526</v>
       </c>
       <c r="V2">
-        <v>1.602137941133402</v>
+        <v>0.5900168255748738</v>
       </c>
       <c r="W2">
-        <v>0.435532687118207</v>
+        <v>0.3275261289170858</v>
       </c>
       <c r="X2">
-        <v>0.07142419195633157</v>
+        <v>0.0794866478977905</v>
       </c>
       <c r="Y2">
-        <v>0.3641084951618755</v>
+        <v>0.2480394810192953</v>
       </c>
       <c r="Z2">
-        <v>-2.288083639766252</v>
+        <v>-1.884298950457261</v>
       </c>
       <c r="AA2">
-        <v>-0.2607716514569345</v>
+        <v>-0.09252461807877654</v>
       </c>
       <c r="AB2">
-        <v>0.06947911838772838</v>
+        <v>0.07904018425646521</v>
       </c>
       <c r="AC2">
-        <v>-0.330250769844663</v>
+        <v>-0.1715648023352417</v>
       </c>
       <c r="AD2">
-        <v>69.73999999999999</v>
+        <v>13.26</v>
       </c>
       <c r="AE2">
-        <v>3.593450136426631</v>
+        <v>6.417644482623319</v>
       </c>
       <c r="AF2">
-        <v>73.33345013642662</v>
+        <v>19.67764448262332</v>
       </c>
       <c r="AG2">
-        <v>-1020.766549863573</v>
+        <v>-506.3223555173767</v>
       </c>
       <c r="AH2">
-        <v>0.09697197356609531</v>
+        <v>0.02159583765226868</v>
       </c>
       <c r="AI2">
-        <v>0.1469215299362978</v>
+        <v>0.04666513565538143</v>
       </c>
       <c r="AJ2">
-        <v>3.021212222031886</v>
+        <v>-1.314516464727533</v>
       </c>
       <c r="AK2">
-        <v>1.715670486177141</v>
+        <v>4.853440597715798</v>
       </c>
       <c r="AL2">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>14</v>
+        <v>-0.301</v>
       </c>
       <c r="AN2">
-        <v>0.3432931331528428</v>
-      </c>
-      <c r="AO2">
-        <v>13.67142857142857</v>
+        <v>0.2621900581326373</v>
       </c>
       <c r="AP2">
-        <v>-5.024693821627238</v>
+        <v>-10.01151491907653</v>
       </c>
       <c r="AQ2">
-        <v>13.67142857142857</v>
+        <v>-127.5747508305648</v>
       </c>
     </row>
     <row r="3">
@@ -725,46 +725,46 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.183</v>
+        <v>0.156</v>
       </c>
       <c r="E3">
-        <v>0.434</v>
+        <v>0.477</v>
       </c>
       <c r="G3">
-        <v>0.02998627388871291</v>
+        <v>0.08657534246575344</v>
       </c>
       <c r="H3">
-        <v>0.02998627388871291</v>
+        <v>0.08657534246575344</v>
       </c>
       <c r="I3">
-        <v>0.128952919409476</v>
+        <v>-0.03467058752948584</v>
       </c>
       <c r="J3">
-        <v>0.1006594518597175</v>
+        <v>-0.02917350311469845</v>
       </c>
       <c r="K3">
-        <v>74</v>
+        <v>67.40000000000001</v>
       </c>
       <c r="L3">
-        <v>0.07813324886495618</v>
+        <v>0.09232876712328768</v>
       </c>
       <c r="M3">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="N3">
-        <v>0.05085204219637544</v>
+        <v>0.03678929765886287</v>
       </c>
       <c r="O3">
-        <v>0.2540540540540541</v>
+        <v>0.2774480712166172</v>
       </c>
       <c r="P3">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="Q3">
-        <v>0.05085204219637544</v>
+        <v>0.03678929765886287</v>
       </c>
       <c r="R3">
-        <v>0.2540540540540541</v>
+        <v>0.2774480712166172</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -773,73 +773,70 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>744.5</v>
+        <v>316</v>
       </c>
       <c r="V3">
-        <v>2.013794968893698</v>
+        <v>0.6216801101711588</v>
       </c>
       <c r="W3">
-        <v>0.3701850925462731</v>
+        <v>0.23558196434813</v>
       </c>
       <c r="X3">
-        <v>0.07456460584384612</v>
+        <v>0.07981077228409059</v>
       </c>
       <c r="Y3">
-        <v>0.295620486702427</v>
+        <v>0.1557711920640394</v>
       </c>
       <c r="Z3">
-        <v>-2.14710028743151</v>
+        <v>-1.8690997472938</v>
       </c>
       <c r="AA3">
-        <v>-0.2161259380206977</v>
+        <v>0.05452818729935777</v>
       </c>
       <c r="AB3">
-        <v>0.0709634876989584</v>
+        <v>0.07922080522430699</v>
       </c>
       <c r="AC3">
-        <v>-0.2870894257196561</v>
+        <v>-0.02469261792494923</v>
       </c>
       <c r="AD3">
-        <v>64.3</v>
+        <v>7.7</v>
       </c>
       <c r="AE3">
-        <v>3.593450136426631</v>
+        <v>6.417644482623319</v>
       </c>
       <c r="AF3">
-        <v>67.89345013642662</v>
+        <v>14.11764448262332</v>
       </c>
       <c r="AG3">
-        <v>-676.6065498635734</v>
+        <v>-301.8823555173767</v>
       </c>
       <c r="AH3">
-        <v>0.1551518883915191</v>
+        <v>0.02702367470111914</v>
       </c>
       <c r="AI3">
-        <v>0.191792955802603</v>
+        <v>0.04915312395954643</v>
       </c>
       <c r="AJ3">
-        <v>2.204601205690591</v>
+        <v>-1.462483288548474</v>
       </c>
       <c r="AK3">
-        <v>1.732638159590284</v>
+        <v>10.48845204261069</v>
       </c>
       <c r="AL3">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>14</v>
+        <v>-0.301</v>
       </c>
       <c r="AN3">
-        <v>0.4971008890606881</v>
-      </c>
-      <c r="AO3">
-        <v>8.692857142857143</v>
+        <v>-0.4444187925660856</v>
       </c>
       <c r="AP3">
-        <v>-5.230819867518928</v>
+        <v>17.42366129039459</v>
       </c>
       <c r="AQ3">
-        <v>8.692857142857143</v>
+        <v>81.06312292358804</v>
       </c>
     </row>
     <row r="4">
@@ -859,46 +856,46 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.158</v>
-      </c>
-      <c r="E4">
-        <v>0.451</v>
+        <v>0.188</v>
+      </c>
+      <c r="F4">
+        <v>0.14</v>
       </c>
       <c r="G4">
-        <v>0.1136264693077928</v>
+        <v>0.1837934560327198</v>
       </c>
       <c r="H4">
-        <v>0.1136264693077928</v>
+        <v>0.1837934560327198</v>
       </c>
       <c r="I4">
-        <v>0.151719634305616</v>
+        <v>0.1605316973415133</v>
       </c>
       <c r="J4">
-        <v>0.1154123956148336</v>
+        <v>0.1252147239263804</v>
       </c>
       <c r="K4">
-        <v>56.9</v>
+        <v>58.6</v>
       </c>
       <c r="L4">
-        <v>0.1238572050500653</v>
+        <v>0.1497955010224949</v>
       </c>
       <c r="M4">
-        <v>35.8</v>
+        <v>26.2</v>
       </c>
       <c r="N4">
-        <v>0.1143039591315453</v>
+        <v>0.06837160751565761</v>
       </c>
       <c r="O4">
-        <v>0.6291739894551845</v>
+        <v>0.447098976109215</v>
       </c>
       <c r="P4">
-        <v>35.8</v>
+        <v>26.2</v>
       </c>
       <c r="Q4">
-        <v>0.1143039591315453</v>
+        <v>0.06837160751565761</v>
       </c>
       <c r="R4">
-        <v>0.6291739894551845</v>
+        <v>0.447098976109215</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -907,55 +904,55 @@
         <v>0</v>
       </c>
       <c r="U4">
-        <v>349.6</v>
+        <v>210</v>
       </c>
       <c r="V4">
-        <v>1.116219667943806</v>
+        <v>0.5480167014613779</v>
       </c>
       <c r="W4">
-        <v>0.5008802816901409</v>
+        <v>0.4194702934860415</v>
       </c>
       <c r="X4">
-        <v>0.06828377806881702</v>
+        <v>0.07916252351149042</v>
       </c>
       <c r="Y4">
-        <v>0.4325965036213238</v>
+        <v>0.3403077699745511</v>
       </c>
       <c r="Z4">
-        <v>-2.646313364055299</v>
+        <v>-1.913332681209038</v>
       </c>
       <c r="AA4">
-        <v>-0.3054173648931714</v>
+        <v>-0.2395774234569109</v>
       </c>
       <c r="AB4">
-        <v>0.06799474907649838</v>
+        <v>0.07885956328862342</v>
       </c>
       <c r="AC4">
-        <v>-0.3734121139696698</v>
+        <v>-0.3184369867455343</v>
       </c>
       <c r="AD4">
-        <v>5.44</v>
+        <v>5.56</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>5.44</v>
+        <v>5.56</v>
       </c>
       <c r="AG4">
-        <v>-344.16</v>
+        <v>-204.44</v>
       </c>
       <c r="AH4">
-        <v>0.01707255837308562</v>
+        <v>0.01430188290976438</v>
       </c>
       <c r="AI4">
-        <v>0.03748105277662947</v>
+        <v>0.04135058753532649</v>
       </c>
       <c r="AJ4">
-        <v>11.11627906976743</v>
+        <v>-1.143656298948311</v>
       </c>
       <c r="AK4">
-        <v>1.683263229971632</v>
+        <v>2.706380725443474</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -964,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.07371273712737128</v>
+        <v>0.08188512518409424</v>
       </c>
       <c r="AP4">
-        <v>-4.663414634146342</v>
+        <v>-3.010898379970544</v>
       </c>
     </row>
   </sheetData>

--- a/teaching/traditional_assets/database/data/turkey/turkey_insurance_prop_cas.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_insurance_prop_cas.xlsx
@@ -651,10 +651,10 @@
         <v>0.3275261289170858</v>
       </c>
       <c r="X2">
-        <v>0.0794866478977905</v>
+        <v>0.07618104946478865</v>
       </c>
       <c r="Y2">
-        <v>0.2480394810192953</v>
+        <v>0.2513450794522971</v>
       </c>
       <c r="Z2">
         <v>-1.884298950457261</v>
@@ -663,10 +663,10 @@
         <v>-0.09252461807877654</v>
       </c>
       <c r="AB2">
-        <v>0.07904018425646521</v>
+        <v>0.07569802497211828</v>
       </c>
       <c r="AC2">
-        <v>-0.1715648023352417</v>
+        <v>-0.1682226430508948</v>
       </c>
       <c r="AD2">
         <v>13.26</v>
@@ -782,10 +782,10 @@
         <v>0.23558196434813</v>
       </c>
       <c r="X3">
-        <v>0.07981077228409059</v>
+        <v>0.07652143131606257</v>
       </c>
       <c r="Y3">
-        <v>0.1557711920640394</v>
+        <v>0.1590605330320675</v>
       </c>
       <c r="Z3">
         <v>-1.8690997472938</v>
@@ -794,10 +794,10 @@
         <v>0.05452818729935777</v>
       </c>
       <c r="AB3">
-        <v>0.07922080522430699</v>
+        <v>0.07588334430584535</v>
       </c>
       <c r="AC3">
-        <v>-0.02469261792494923</v>
+        <v>-0.02135515700648759</v>
       </c>
       <c r="AD3">
         <v>7.7</v>
@@ -913,10 +913,10 @@
         <v>0.4194702934860415</v>
       </c>
       <c r="X4">
-        <v>0.07916252351149042</v>
+        <v>0.07584066761351474</v>
       </c>
       <c r="Y4">
-        <v>0.3403077699745511</v>
+        <v>0.3436296258725268</v>
       </c>
       <c r="Z4">
         <v>-1.913332681209038</v>
@@ -925,10 +925,10 @@
         <v>-0.2395774234569109</v>
       </c>
       <c r="AB4">
-        <v>0.07885956328862342</v>
+        <v>0.0755127056383912</v>
       </c>
       <c r="AC4">
-        <v>-0.3184369867455343</v>
+        <v>-0.315090129095302</v>
       </c>
       <c r="AD4">
         <v>5.56</v>
